--- a/db/Books.xlsx
+++ b/db/Books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c_code\362\project-362\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{547ADBA8-DD3F-43D0-8760-90A8A7FC6597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CB74393-B1C1-45CB-A0B5-ABDCCD059342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30225" yWindow="1545" windowWidth="25275" windowHeight="11220" xr2:uid="{3E5EA77C-66AC-4B21-AD0E-B6B2B885F673}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E5EA77C-66AC-4B21-AD0E-B6B2B885F673}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>ISBN</t>
   </si>
@@ -181,13 +181,58 @@
   </si>
   <si>
     <t>Picture_LINK</t>
+  </si>
+  <si>
+    <t>All American Boys</t>
+  </si>
+  <si>
+    <t>A bag of chips. That’s all sixteen-year-old Rashad is looking for at the corner bodega. What he finds instead is a fist-happy cop, Paul Galluzzo, who mistakes Rashad for a shoplifter, mistakes Rashad’s pleadings that he’s stolen nothing for belligerence, mistakes Rashad’s resistance to leave the bodega as resisting arrest, mistakes Rashad’s every flinch at every punch the cop throws as further resistance and refusal to STAY STILL as ordered. But how can you stay still when someone is pounding your face into the concrete pavement?</t>
+  </si>
+  <si>
+    <t>Jason Reynolds</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/All-American-Boys-Jason-Reynolds/dp/1481463349/ref=pd_bkstr_rtpb_5?_encoding=UTF8&amp;pd_rd_i=1481463349&amp;pd_rd_r=7d38fca1-2a98-4d45-b7a5-bfbc1b1931e1&amp;pd_rd_w=wwhdX&amp;pd_rd_wg=sZkfc&amp;pf_rd_p=cf35b793-d3c7-404e-8f37-f9e58567007f&amp;pf_rd_r=XEKJQH058B0TYHMK7Q11&amp;psc=1&amp;refRID=XFK7AVCMMKS1RG6H740P</t>
+  </si>
+  <si>
+    <t>All American Boys.jpg</t>
+  </si>
+  <si>
+    <t>Game Theory: An Introduction</t>
+  </si>
+  <si>
+    <t>This comprehensive textbook introduces readers to the principal ideas and applications of game theory, in a style that combines rigor with accessibility. Steven Tadelis begins with a concise description of rational decision making, and goes on to discuss strategic and extensive form games with complete information, Bayesian games, and extensive form games with imperfect information. He covers a host of topics, including multistage and repeated games, bargaining theory, auctions, rent-seeking games, mechanism design, signaling games, reputation building, and information transmission games. Unlike other books on game theory, this one begins with the idea of rationality and explores its implications for multiperson decision problems through concepts like dominated strategies and rationalizability. Only then does it present the subject of Nash equilibrium and its derivatives.</t>
+  </si>
+  <si>
+    <t>Steven Tadelis</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Game-Theory-Introduction-Steven-Tadelis/dp/0691129088/ref=pd_bkstr_rtpb_39?_encoding=UTF8&amp;pd_rd_i=0691129088&amp;pd_rd_r=7d38fca1-2a98-4d45-b7a5-bfbc1b1931e1&amp;pd_rd_w=wwhdX&amp;pd_rd_wg=sZkfc&amp;pf_rd_p=cf35b793-d3c7-404e-8f37-f9e58567007f&amp;pf_rd_r=XEKJQH058B0TYHMK7Q11&amp;psc=1&amp;refRID=YNA27HS4C8YA6S3D27XS</t>
+  </si>
+  <si>
+    <t>Game Theory An Introduction.jpg</t>
+  </si>
+  <si>
+    <t>Nevernight: Book One of the Nevernight Chronicle (The Nevernight Chronicle, 1)</t>
+  </si>
+  <si>
+    <t>In a land where three suns almost never set, a fledgling killer joins a school of assassins, seeking vengeance against the powers who destroyed her family. Daughter of an executed traitor, Mia Corvere is barely able to escape her father’s failed rebellion with her life. Alone and friendless, she hides in a city built from the bones of a dead god, hunted by the Senate and her father’s former comrades. But her gift for speaking with the shadows leads her to the door of a retired killer, and a future she never imagined. Now, a sixteen year old Mia is apprenticed to the deadliest flock of assassins in the entire Republic ― the Red Church. Treachery and trials await her with the Church’s halls, and to fail is to die. But if she survives to initiation, Mia will be inducted among the chosen of the Lady of Blessed Murder, and one step closer to the only thing she desires.</t>
+  </si>
+  <si>
+    <t>Jay Kristoff</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Nevernight-Book-One-Chronicle/dp/1250132134/ref=pd_bkstr_rtpb_48?_encoding=UTF8&amp;pd_rd_i=1250132134&amp;pd_rd_r=7d38fca1-2a98-4d45-b7a5-bfbc1b1931e1&amp;pd_rd_w=wwhdX&amp;pd_rd_wg=sZkfc&amp;pf_rd_p=cf35b793-d3c7-404e-8f37-f9e58567007f&amp;pf_rd_r=XEKJQH058B0TYHMK7Q11&amp;psc=1&amp;refRID=YNA27HS4C8YA6S3D27XS</t>
+  </si>
+  <si>
+    <t>Nevernight 1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +262,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,10 +301,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -255,8 +322,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,20 +643,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B71BE2-CCE1-4C2D-91EA-409B67698157}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="165.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="195.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -630,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30">
+    <row r="3" spans="1:7" ht="120">
       <c r="A3" s="2">
         <v>1559369523</v>
       </c>
@@ -650,7 +724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45">
+    <row r="4" spans="1:7" ht="135">
       <c r="A4" s="2">
         <v>1416590323</v>
       </c>
@@ -670,7 +744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30">
+    <row r="5" spans="1:7" ht="120">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -690,7 +764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60">
+    <row r="6" spans="1:7" ht="255">
       <c r="A6" s="2">
         <v>811226050</v>
       </c>
@@ -710,7 +784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="90">
       <c r="A7" s="2">
         <v>1250215072</v>
       </c>
@@ -730,7 +804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60">
+    <row r="8" spans="1:7" ht="225">
       <c r="A8" s="2">
         <v>714876453</v>
       </c>
@@ -750,7 +824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="60">
+    <row r="9" spans="1:7" ht="210">
       <c r="A9" s="2">
         <v>765387522</v>
       </c>
@@ -770,8 +844,71 @@
         <v>37</v>
       </c>
     </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>1481463349</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>691129088</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>9781250132130</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F12" r:id="rId1" display="https://www.amazon.com/Nevernight-Book-One-Chronicle/dp/1250132134/ref=pd_bkstr_rtpb_48?_encoding=UTF8&amp;pd_rd_i=1250132134&amp;pd_rd_r=7d38fca1-2a98-4d45-b7a5-bfbc1b1931e1&amp;pd_rd_w=wwhdX&amp;pd_rd_wg=sZkfc&amp;pf_rd_p=cf35b793-d3c7-404e-8f37-f9e58567007f&amp;pf_rd_r=XEKJQH058B0TYHMK7Q11&amp;psc=1&amp;refRID=YNA27HS4C8YA6S3D27XS" xr:uid="{F3B39FBF-A751-40C3-BD70-022136755116}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>